--- a/Examples/Liquid, Ol_Liq_Themometry/Thermometry_out1.xlsx
+++ b/Examples/Liquid, Ol_Liq_Themometry/Thermometry_out1.xlsx
@@ -109,7 +109,7 @@
     <t>Teq15_4H2O</t>
   </si>
   <si>
-    <t>Temp eq 14 4 wt% H2O</t>
+    <t>Temp eq 15 4 wt% H2O</t>
   </si>
   <si>
     <t>Liquid 1</t>
